--- a/Code/Results/Cases/Case_1_125/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_125/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.0497730645059</v>
+        <v>18.12773397212263</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.573997603993113</v>
+        <v>3.2826273608389</v>
       </c>
       <c r="E2">
-        <v>26.26980783123292</v>
+        <v>22.74026445050044</v>
       </c>
       <c r="F2">
-        <v>16.19535222279523</v>
+        <v>16.96212855333762</v>
       </c>
       <c r="G2">
-        <v>21.07120592323192</v>
+        <v>17.00031330105465</v>
       </c>
       <c r="H2">
-        <v>6.750848363613147</v>
+        <v>10.79167355758972</v>
       </c>
       <c r="I2">
-        <v>20.7930259525451</v>
+        <v>23.47269567014709</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.22747968527605</v>
+        <v>10.47836564886483</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.5959142508764</v>
+        <v>14.87071538585244</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.49776884232844</v>
+        <v>17.46253429964428</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.390475443905093</v>
+        <v>3.227576146732478</v>
       </c>
       <c r="E3">
-        <v>25.08438975313865</v>
+        <v>22.34644934318895</v>
       </c>
       <c r="F3">
-        <v>15.32419569042094</v>
+        <v>16.85748577115322</v>
       </c>
       <c r="G3">
-        <v>19.62337695144607</v>
+        <v>16.70869871018251</v>
       </c>
       <c r="H3">
-        <v>6.648059155806499</v>
+        <v>10.82291568123256</v>
       </c>
       <c r="I3">
-        <v>20.2139706009354</v>
+        <v>23.42757438195736</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.39223161316826</v>
+        <v>10.16273145591122</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.13396111589072</v>
+        <v>14.87131400086034</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.49039531107635</v>
+        <v>17.03987238317603</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.272191210257462</v>
+        <v>3.193550818601122</v>
       </c>
       <c r="E4">
-        <v>24.33159008485081</v>
+        <v>22.10541916764979</v>
       </c>
       <c r="F4">
-        <v>14.78327371367394</v>
+        <v>16.80015482332471</v>
       </c>
       <c r="G4">
-        <v>18.74710590267135</v>
+        <v>16.53737018957867</v>
       </c>
       <c r="H4">
-        <v>6.591853632688041</v>
+        <v>10.84483148802006</v>
       </c>
       <c r="I4">
-        <v>19.8706878059919</v>
+        <v>23.40853447559392</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.85022007980765</v>
+        <v>9.963587186289823</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.8569264058816</v>
+        <v>14.87732281440509</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.0661877261573</v>
+        <v>16.86426178491723</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.222610697390525</v>
+        <v>3.179644814283829</v>
       </c>
       <c r="E5">
-        <v>24.01899506674668</v>
+        <v>22.00753605501764</v>
       </c>
       <c r="F5">
-        <v>14.56166284049251</v>
+        <v>16.77855523319252</v>
       </c>
       <c r="G5">
-        <v>18.38488606365013</v>
+        <v>16.46961866576537</v>
       </c>
       <c r="H5">
-        <v>6.570656719963175</v>
+        <v>10.85444732271445</v>
       </c>
       <c r="I5">
-        <v>19.73404682701693</v>
+        <v>23.40296659788777</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.62202143817562</v>
+        <v>9.881190863203198</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.74585998541645</v>
+        <v>14.88118614909748</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.99492148387609</v>
+        <v>16.83490453684332</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.214295610057444</v>
+        <v>3.177333761300796</v>
       </c>
       <c r="E6">
-        <v>23.966751673843</v>
+        <v>21.99130734255343</v>
       </c>
       <c r="F6">
-        <v>14.52480403489745</v>
+        <v>16.77507573342483</v>
       </c>
       <c r="G6">
-        <v>18.32444227820924</v>
+        <v>16.45849687313866</v>
       </c>
       <c r="H6">
-        <v>6.567239107255227</v>
+        <v>10.85608532591915</v>
       </c>
       <c r="I6">
-        <v>19.71155876509037</v>
+        <v>23.40217469657773</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.58368737833858</v>
+        <v>9.867437009403933</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.72753279770643</v>
+        <v>14.88191295793611</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.48472974195766</v>
+        <v>17.03751740433587</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.271528088773054</v>
+        <v>3.193363419807174</v>
       </c>
       <c r="E7">
-        <v>24.32739725250068</v>
+        <v>22.10409751877374</v>
       </c>
       <c r="F7">
-        <v>14.78028929113493</v>
+        <v>16.79985635673444</v>
       </c>
       <c r="G7">
-        <v>18.74224110863276</v>
+        <v>16.5364479434814</v>
       </c>
       <c r="H7">
-        <v>6.59156089502607</v>
+        <v>10.84495840024824</v>
       </c>
       <c r="I7">
-        <v>19.86883164261444</v>
+        <v>23.40845049959591</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.84717214808627</v>
+        <v>9.962480856661566</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.8554209031491</v>
+        <v>14.87736919475902</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.52593038486245</v>
+        <v>17.90144176139903</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.511897550822999</v>
+        <v>3.263701517177648</v>
       </c>
       <c r="E8">
-        <v>25.86650381073732</v>
+        <v>22.60440206220609</v>
       </c>
       <c r="F8">
-        <v>15.89641325895911</v>
+        <v>16.92462647230262</v>
       </c>
       <c r="G8">
-        <v>20.56540834025742</v>
+        <v>16.89823763673171</v>
       </c>
       <c r="H8">
-        <v>6.713957217015297</v>
+        <v>10.80187727616494</v>
       </c>
       <c r="I8">
-        <v>20.59092377033276</v>
+        <v>23.4553475826614</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>12.94554125468765</v>
+        <v>10.37070164734927</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.43535958040188</v>
+        <v>14.86974904281786</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.0980676548633</v>
+        <v>19.47484570427638</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.937810103516241</v>
+        <v>3.399183059282818</v>
       </c>
       <c r="E9">
-        <v>28.67013340380081</v>
+        <v>23.58544736916816</v>
       </c>
       <c r="F9">
-        <v>18.02529615361125</v>
+        <v>17.22300924988104</v>
       </c>
       <c r="G9">
-        <v>24.09556083680053</v>
+        <v>17.66328420166752</v>
       </c>
       <c r="H9">
-        <v>7.009781768956162</v>
+        <v>10.73917681869694</v>
       </c>
       <c r="I9">
-        <v>22.09694984305965</v>
+        <v>23.61540694642858</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.86823358314541</v>
+        <v>11.12483632860017</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>12.61817059061291</v>
+        <v>14.89967455299334</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.47434460440032</v>
+        <v>20.54815279214156</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.222009740681282</v>
+        <v>3.496353807880802</v>
       </c>
       <c r="E10">
-        <v>30.58089702900767</v>
+        <v>24.29816681970491</v>
       </c>
       <c r="F10">
-        <v>19.7834135286051</v>
+        <v>17.47312082396127</v>
       </c>
       <c r="G10">
-        <v>26.5317733954449</v>
+        <v>18.25138592780243</v>
       </c>
       <c r="H10">
-        <v>7.262107230609745</v>
+        <v>10.70651269785059</v>
       </c>
       <c r="I10">
-        <v>23.24907660692692</v>
+        <v>23.77346426595658</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.14090067592079</v>
+        <v>11.6458591795714</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.78948357979261</v>
+        <v>14.94906677997015</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.52046726679602</v>
+        <v>21.01694240224236</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.344930252987338</v>
+        <v>3.53987139015191</v>
       </c>
       <c r="E11">
-        <v>31.41491262660932</v>
+        <v>24.61905159324252</v>
       </c>
       <c r="F11">
-        <v>20.56123691478837</v>
+        <v>17.59315091609075</v>
       </c>
       <c r="G11">
-        <v>27.60616681484485</v>
+        <v>18.52290037705358</v>
       </c>
       <c r="H11">
-        <v>7.38460170704914</v>
+        <v>10.69458625285603</v>
       </c>
       <c r="I11">
-        <v>23.78140686363852</v>
+        <v>23.85387966673145</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>16.68985992010553</v>
+        <v>11.8748619548221</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.35596883423687</v>
+        <v>14.97746785345703</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.90829203775758</v>
+        <v>21.19155626360198</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.390554808241133</v>
+        <v>3.556238092485326</v>
       </c>
       <c r="E12">
-        <v>31.72548589946416</v>
+        <v>24.73995743979077</v>
       </c>
       <c r="F12">
-        <v>20.85186890570001</v>
+        <v>17.6394600195016</v>
       </c>
       <c r="G12">
-        <v>28.00821860098021</v>
+        <v>18.6261516752162</v>
       </c>
       <c r="H12">
-        <v>7.432099781899476</v>
+        <v>10.69049334873919</v>
       </c>
       <c r="I12">
-        <v>23.98404716684049</v>
+        <v>23.88552862850948</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>16.89346246260042</v>
+        <v>11.96036600460381</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.56765831286412</v>
+        <v>14.98907156414662</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.82513523574431</v>
+        <v>21.15408087550884</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.380769880401595</v>
+        <v>3.552718444761108</v>
       </c>
       <c r="E13">
-        <v>31.65883453000821</v>
+        <v>24.71394711191286</v>
       </c>
       <c r="F13">
-        <v>20.78944914177272</v>
+        <v>17.62944914602624</v>
       </c>
       <c r="G13">
-        <v>27.92184142814492</v>
+        <v>18.60389748804796</v>
       </c>
       <c r="H13">
-        <v>7.421820725714229</v>
+        <v>10.69135597418279</v>
       </c>
       <c r="I13">
-        <v>23.94035964013924</v>
+        <v>23.87865965573603</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>16.84980259063934</v>
+        <v>11.94200610093828</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.52219168417967</v>
+        <v>14.98653482823181</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.5525399277378</v>
+        <v>21.03136680703403</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.348702341511852</v>
+        <v>3.541220219211914</v>
       </c>
       <c r="E14">
-        <v>31.44056985679663</v>
+        <v>24.62901144219163</v>
       </c>
       <c r="F14">
-        <v>20.58522545308077</v>
+        <v>17.596943885295</v>
       </c>
       <c r="G14">
-        <v>27.63933947808112</v>
+        <v>18.53138699007344</v>
       </c>
       <c r="H14">
-        <v>7.388487101389388</v>
+        <v>10.69424103304501</v>
       </c>
       <c r="I14">
-        <v>23.79805763070124</v>
+        <v>23.8564596102843</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16.70669590927208</v>
+        <v>11.88192109262829</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.37344086541933</v>
+        <v>14.97840551521679</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.38448736585255</v>
+        <v>20.95581942689107</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.328939690261507</v>
+        <v>3.534162179785222</v>
       </c>
       <c r="E15">
-        <v>31.30618769817853</v>
+        <v>24.57690329348934</v>
       </c>
       <c r="F15">
-        <v>20.45962476074614</v>
+        <v>17.57714368249091</v>
       </c>
       <c r="G15">
-        <v>27.46567678507926</v>
+        <v>18.48702478589167</v>
       </c>
       <c r="H15">
-        <v>7.368214188803714</v>
+        <v>10.69606339820772</v>
       </c>
       <c r="I15">
-        <v>23.71102803467971</v>
+        <v>23.84301654098216</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>16.6184831538915</v>
+        <v>11.84495742355052</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.2819608540345</v>
+        <v>14.97353646939756</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.40480778317895</v>
+        <v>20.51711508049459</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.213847827870639</v>
+        <v>3.493494831333073</v>
       </c>
       <c r="E16">
-        <v>30.52566689134019</v>
+        <v>24.27711815687135</v>
       </c>
       <c r="F16">
-        <v>19.73203032005281</v>
+        <v>17.4653987886754</v>
       </c>
       <c r="G16">
-        <v>26.46088322409282</v>
+        <v>18.23371008905025</v>
       </c>
       <c r="H16">
-        <v>7.254257408837771</v>
+        <v>10.7073512783057</v>
       </c>
       <c r="I16">
-        <v>23.21444198185441</v>
+        <v>23.76837800569671</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.10442443969833</v>
+        <v>11.63072660293102</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.75206300194064</v>
+        <v>14.94732975018171</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.79481930300249</v>
+        <v>20.24291765413716</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.141606538208016</v>
+        <v>3.468360995670151</v>
       </c>
       <c r="E17">
-        <v>30.03768132400354</v>
+        <v>24.09226330744514</v>
       </c>
       <c r="F17">
-        <v>19.27864807135962</v>
+        <v>17.39841869106639</v>
       </c>
       <c r="G17">
-        <v>25.83584267766154</v>
+        <v>18.07923066593522</v>
       </c>
       <c r="H17">
-        <v>7.186326443335386</v>
+        <v>10.71502839235325</v>
       </c>
       <c r="I17">
-        <v>22.91181410460397</v>
+        <v>23.72475192034926</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15.78140990845757</v>
+        <v>11.4972042212197</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.42187820322327</v>
+        <v>14.93276966244403</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.44433268962495</v>
+        <v>20.0833800132637</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.099456591404564</v>
+        <v>3.453840903801817</v>
       </c>
       <c r="E18">
-        <v>29.75370053244157</v>
+        <v>23.98563296378431</v>
       </c>
       <c r="F18">
-        <v>19.01527861346316</v>
+        <v>17.36048479969826</v>
       </c>
       <c r="G18">
-        <v>25.47314289667376</v>
+        <v>17.99076126673367</v>
       </c>
       <c r="H18">
-        <v>7.147980056556889</v>
+        <v>10.7197200093875</v>
       </c>
       <c r="I18">
-        <v>22.73853072036743</v>
+        <v>23.70046251481505</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>15.59279585080723</v>
+        <v>11.41965469955597</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.23006610338687</v>
+        <v>14.92495381049116</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.32476434088166</v>
+        <v>20.0290531332493</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.085082801366066</v>
+        <v>3.448914129868809</v>
       </c>
       <c r="E19">
-        <v>29.65698831745017</v>
+        <v>23.94948105025286</v>
       </c>
       <c r="F19">
-        <v>18.92565935579251</v>
+        <v>17.34774386014744</v>
       </c>
       <c r="G19">
-        <v>25.3497890551759</v>
+        <v>17.9608771130868</v>
       </c>
       <c r="H19">
-        <v>7.135121135886154</v>
+        <v>10.72135584998138</v>
       </c>
       <c r="I19">
-        <v>22.67999803130065</v>
+        <v>23.69237726955582</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>15.52844825310778</v>
+        <v>11.39327078681008</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.16479393453243</v>
+        <v>14.92240356263949</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85925971593972</v>
+        <v>20.27229630598836</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.149358771020826</v>
+        <v>3.471043238239079</v>
       </c>
       <c r="E20">
-        <v>30.08997169222442</v>
+        <v>24.11197410528478</v>
       </c>
       <c r="F20">
-        <v>19.3271797986181</v>
+        <v>17.40548794416821</v>
       </c>
       <c r="G20">
-        <v>25.90270938186511</v>
+        <v>18.09563663009519</v>
       </c>
       <c r="H20">
-        <v>7.19348267259774</v>
+        <v>10.71418257855678</v>
       </c>
       <c r="I20">
-        <v>22.94394957458254</v>
+        <v>23.72931305543849</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>15.81608745858322</v>
+        <v>11.51149610153198</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.45722298910382</v>
+        <v>14.93426180837743</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.63283265994486</v>
+        <v>21.06749057342364</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.358146447686666</v>
+        <v>3.5446006856766</v>
       </c>
       <c r="E21">
-        <v>31.50482330381965</v>
+        <v>24.65397653739721</v>
       </c>
       <c r="F21">
-        <v>20.64531660745241</v>
+        <v>17.60646858051411</v>
       </c>
       <c r="G21">
-        <v>27.72244661598188</v>
+        <v>18.55267436663372</v>
       </c>
       <c r="H21">
-        <v>7.39824779510287</v>
+        <v>10.69338211844551</v>
       </c>
       <c r="I21">
-        <v>23.83982734487499</v>
+        <v>23.86294803023467</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>16.74884556465792</v>
+        <v>11.89960293333113</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.41720868922728</v>
+        <v>14.98077029531603</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.74630703539918</v>
+        <v>21.57021428766344</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.489220787501439</v>
+        <v>3.592013307023268</v>
       </c>
       <c r="E22">
-        <v>32.39884399379315</v>
+        <v>25.00461876102801</v>
       </c>
       <c r="F22">
-        <v>21.48402593323072</v>
+        <v>17.74279097400772</v>
       </c>
       <c r="G22">
-        <v>28.88384329984855</v>
+        <v>18.85384738744223</v>
       </c>
       <c r="H22">
-        <v>7.538556336495356</v>
+        <v>10.68225625206601</v>
       </c>
       <c r="I22">
-        <v>24.43146142069994</v>
+        <v>23.95725156557403</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>17.33355067434672</v>
+        <v>12.146151068773</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.0281820490706</v>
+        <v>15.01611095428197</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.15641937953162</v>
+        <v>21.30348686851913</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.419758162771663</v>
+        <v>3.566773204333757</v>
       </c>
       <c r="E23">
-        <v>31.92454776791255</v>
+        <v>24.8178427987998</v>
       </c>
       <c r="F23">
-        <v>21.03845302297522</v>
+        <v>17.66959309649063</v>
       </c>
       <c r="G23">
-        <v>28.26650499266673</v>
+        <v>18.69292406274536</v>
       </c>
       <c r="H23">
-        <v>7.463077121074194</v>
+        <v>10.68796796966205</v>
       </c>
       <c r="I23">
-        <v>24.11517032336953</v>
+        <v>23.90629211349893</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.02374851210005</v>
+        <v>12.01523229013852</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.7035721249391</v>
+        <v>14.9967983240249</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.83014297189963</v>
+        <v>20.25902012062811</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.145855909223826</v>
+        <v>3.46983081434575</v>
       </c>
       <c r="E24">
-        <v>30.06634189008732</v>
+        <v>24.10306394900006</v>
       </c>
       <c r="F24">
-        <v>19.3052470613637</v>
+        <v>17.4022901440662</v>
       </c>
       <c r="G24">
-        <v>25.87248940187334</v>
+        <v>18.08821841507591</v>
       </c>
       <c r="H24">
-        <v>7.190245136252335</v>
+        <v>10.71456410531194</v>
       </c>
       <c r="I24">
-        <v>22.92941893419921</v>
+        <v>23.72724849777612</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>15.80041880072757</v>
+        <v>11.50503718503902</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.44124979745965</v>
+        <v>14.93358548029039</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.17756377450835</v>
+        <v>19.06313719162274</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.827575965624705</v>
+        <v>3.362886379264974</v>
       </c>
       <c r="E25">
-        <v>27.93673261205376</v>
+        <v>23.32090071170974</v>
       </c>
       <c r="F25">
-        <v>17.45724893898318</v>
+        <v>17.13671737577759</v>
       </c>
       <c r="G25">
-        <v>23.16813942098032</v>
+        <v>17.45117546908091</v>
       </c>
       <c r="H25">
-        <v>6.923659020033258</v>
+        <v>10.75379374500879</v>
       </c>
       <c r="I25">
-        <v>21.68088135372423</v>
+        <v>23.56491533269772</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.37277300469106</v>
+        <v>10.92631145802654</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>12.29421730999248</v>
+        <v>14.88676413336646</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_125/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_125/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.12773397212263</v>
+        <v>24.04977306450592</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.2826273608389</v>
+        <v>3.573997603993177</v>
       </c>
       <c r="E2">
-        <v>22.74026445050044</v>
+        <v>26.26980783123302</v>
       </c>
       <c r="F2">
-        <v>16.96212855333762</v>
+        <v>16.19535222279522</v>
       </c>
       <c r="G2">
-        <v>17.00031330105465</v>
+        <v>21.07120592323189</v>
       </c>
       <c r="H2">
-        <v>10.79167355758972</v>
+        <v>6.750848363613099</v>
       </c>
       <c r="I2">
-        <v>23.47269567014709</v>
+        <v>20.79302595254515</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.47836564886483</v>
+        <v>13.22747968527604</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.87071538585244</v>
+        <v>11.59591425087638</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.46253429964428</v>
+        <v>22.49776884232848</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.227576146732478</v>
+        <v>3.3904754439051</v>
       </c>
       <c r="E3">
-        <v>22.34644934318895</v>
+        <v>25.0843897531386</v>
       </c>
       <c r="F3">
-        <v>16.85748577115322</v>
+        <v>15.32419569042098</v>
       </c>
       <c r="G3">
-        <v>16.70869871018251</v>
+        <v>19.62337695144607</v>
       </c>
       <c r="H3">
-        <v>10.82291568123256</v>
+        <v>6.648059155806499</v>
       </c>
       <c r="I3">
-        <v>23.42757438195736</v>
+        <v>20.21397060093539</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.16273145591122</v>
+        <v>12.39223161316822</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>14.87131400086034</v>
+        <v>11.13396111589077</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.03987238317603</v>
+        <v>21.49039531107637</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.193550818601122</v>
+        <v>3.272191210257533</v>
       </c>
       <c r="E4">
-        <v>22.10541916764979</v>
+        <v>24.33159008485078</v>
       </c>
       <c r="F4">
-        <v>16.80015482332471</v>
+        <v>14.78327371367394</v>
       </c>
       <c r="G4">
-        <v>16.53737018957867</v>
+        <v>18.74710590267135</v>
       </c>
       <c r="H4">
-        <v>10.84483148802006</v>
+        <v>6.591853632688041</v>
       </c>
       <c r="I4">
-        <v>23.40853447559392</v>
+        <v>19.87068780599188</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.963587186289823</v>
+        <v>11.85022007980765</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>14.87732281440509</v>
+        <v>10.8569264058816</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.86426178491723</v>
+        <v>21.06618772615735</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.179644814283829</v>
+        <v>3.222610697390518</v>
       </c>
       <c r="E5">
-        <v>22.00753605501764</v>
+        <v>24.01899506674664</v>
       </c>
       <c r="F5">
-        <v>16.77855523319252</v>
+        <v>14.56166284049251</v>
       </c>
       <c r="G5">
-        <v>16.46961866576537</v>
+        <v>18.38488606365013</v>
       </c>
       <c r="H5">
-        <v>10.85444732271445</v>
+        <v>6.570656719963271</v>
       </c>
       <c r="I5">
-        <v>23.40296659788777</v>
+        <v>19.73404682701693</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.881190863203198</v>
+        <v>11.62202143817566</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.88118614909748</v>
+        <v>10.74585998541645</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.83490453684332</v>
+        <v>20.99492148387607</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.177333761300796</v>
+        <v>3.214295610057609</v>
       </c>
       <c r="E6">
-        <v>21.99130734255343</v>
+        <v>23.96675167384298</v>
       </c>
       <c r="F6">
-        <v>16.77507573342483</v>
+        <v>14.52480403489745</v>
       </c>
       <c r="G6">
-        <v>16.45849687313866</v>
+        <v>18.32444227820926</v>
       </c>
       <c r="H6">
-        <v>10.85608532591915</v>
+        <v>6.567239107255234</v>
       </c>
       <c r="I6">
-        <v>23.40217469657773</v>
+        <v>19.71155876509037</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.867437009403933</v>
+        <v>11.58368737833855</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.88191295793611</v>
+        <v>10.72753279770647</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.03751740433587</v>
+        <v>21.48472974195762</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.193363419807174</v>
+        <v>3.271528088772959</v>
       </c>
       <c r="E7">
-        <v>22.10409751877374</v>
+        <v>24.32739725250067</v>
       </c>
       <c r="F7">
-        <v>16.79985635673444</v>
+        <v>14.78028929113494</v>
       </c>
       <c r="G7">
-        <v>16.5364479434814</v>
+        <v>18.74224110863278</v>
       </c>
       <c r="H7">
-        <v>10.84495840024824</v>
+        <v>6.591560895026112</v>
       </c>
       <c r="I7">
-        <v>23.40845049959591</v>
+        <v>19.86883164261439</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.962480856661566</v>
+        <v>11.84717214808625</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>14.87736919475902</v>
+        <v>10.8554209031491</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.90144176139903</v>
+        <v>23.52593038486248</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.263701517177648</v>
+        <v>3.511897550823007</v>
       </c>
       <c r="E8">
-        <v>22.60440206220609</v>
+        <v>25.86650381073728</v>
       </c>
       <c r="F8">
-        <v>16.92462647230262</v>
+        <v>15.89641325895913</v>
       </c>
       <c r="G8">
-        <v>16.89823763673171</v>
+        <v>20.5654083402574</v>
       </c>
       <c r="H8">
-        <v>10.80187727616494</v>
+        <v>6.713957217015302</v>
       </c>
       <c r="I8">
-        <v>23.4553475826614</v>
+        <v>20.59092377033275</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.37070164734927</v>
+        <v>12.94554125468761</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.86974904281786</v>
+        <v>11.43535958040193</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.47484570427638</v>
+        <v>27.09806765486328</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.399183059282818</v>
+        <v>3.937810103516273</v>
       </c>
       <c r="E9">
-        <v>23.58544736916816</v>
+        <v>28.67013340380081</v>
       </c>
       <c r="F9">
-        <v>17.22300924988104</v>
+        <v>18.02529615361125</v>
       </c>
       <c r="G9">
-        <v>17.66328420166752</v>
+        <v>24.09556083680049</v>
       </c>
       <c r="H9">
-        <v>10.73917681869694</v>
+        <v>7.009781768956162</v>
       </c>
       <c r="I9">
-        <v>23.61540694642858</v>
+        <v>22.09694984305966</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.12483632860017</v>
+        <v>14.86823358314538</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.89967455299334</v>
+        <v>12.61817059061292</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.54815279214156</v>
+        <v>29.47434460440034</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.496353807880802</v>
+        <v>4.222009740681319</v>
       </c>
       <c r="E10">
-        <v>24.29816681970491</v>
+        <v>30.58089702900767</v>
       </c>
       <c r="F10">
-        <v>17.47312082396127</v>
+        <v>19.7834135286052</v>
       </c>
       <c r="G10">
-        <v>18.25138592780243</v>
+        <v>26.53177339544503</v>
       </c>
       <c r="H10">
-        <v>10.70651269785059</v>
+        <v>7.262107230609731</v>
       </c>
       <c r="I10">
-        <v>23.77346426595658</v>
+        <v>23.24907660692684</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.6458591795714</v>
+        <v>16.1409006759208</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.94906677997015</v>
+        <v>13.78948357979269</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.01694240224236</v>
+        <v>30.52046726679599</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.53987139015191</v>
+        <v>4.344930252987324</v>
       </c>
       <c r="E11">
-        <v>24.61905159324252</v>
+        <v>31.41491262660937</v>
       </c>
       <c r="F11">
-        <v>17.59315091609075</v>
+        <v>20.56123691478835</v>
       </c>
       <c r="G11">
-        <v>18.52290037705358</v>
+        <v>27.60616681484487</v>
       </c>
       <c r="H11">
-        <v>10.69458625285603</v>
+        <v>7.384601707049135</v>
       </c>
       <c r="I11">
-        <v>23.85387966673145</v>
+        <v>23.78140686363856</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.8748619548221</v>
+        <v>16.68985992010552</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.97746785345703</v>
+        <v>14.35596883423687</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.19155626360198</v>
+        <v>30.90829203775758</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3.556238092485326</v>
+        <v>4.390554808241118</v>
       </c>
       <c r="E12">
-        <v>24.73995743979077</v>
+        <v>31.72548589946401</v>
       </c>
       <c r="F12">
-        <v>17.6394600195016</v>
+        <v>20.85186890569998</v>
       </c>
       <c r="G12">
-        <v>18.6261516752162</v>
+        <v>28.00821860098019</v>
       </c>
       <c r="H12">
-        <v>10.69049334873919</v>
+        <v>7.432099781899512</v>
       </c>
       <c r="I12">
-        <v>23.88552862850948</v>
+        <v>23.98404716684039</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.96036600460381</v>
+        <v>16.8934624626004</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.98907156414662</v>
+        <v>14.5676583128641</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.15408087550884</v>
+        <v>30.82513523574429</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3.552718444761108</v>
+        <v>4.380769880401647</v>
       </c>
       <c r="E13">
-        <v>24.71394711191286</v>
+        <v>31.65883453000828</v>
       </c>
       <c r="F13">
-        <v>17.62944914602624</v>
+        <v>20.78944914177277</v>
       </c>
       <c r="G13">
-        <v>18.60389748804796</v>
+        <v>27.92184142814502</v>
       </c>
       <c r="H13">
-        <v>10.69135597418279</v>
+        <v>7.421820725714255</v>
       </c>
       <c r="I13">
-        <v>23.87865965573603</v>
+        <v>23.94035964013924</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.94200610093828</v>
+        <v>16.84980259063932</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.98653482823181</v>
+        <v>14.52219168417972</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.03136680703403</v>
+        <v>30.55253992773786</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3.541220219211914</v>
+        <v>4.348702341511867</v>
       </c>
       <c r="E14">
-        <v>24.62901144219163</v>
+        <v>31.44056985679665</v>
       </c>
       <c r="F14">
-        <v>17.596943885295</v>
+        <v>20.58522545308081</v>
       </c>
       <c r="G14">
-        <v>18.53138699007344</v>
+        <v>27.63933947808113</v>
       </c>
       <c r="H14">
-        <v>10.69424103304501</v>
+        <v>7.38848710138936</v>
       </c>
       <c r="I14">
-        <v>23.8564596102843</v>
+        <v>23.79805763070123</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.88192109262829</v>
+        <v>16.70669590927208</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.97840551521679</v>
+        <v>14.37344086541935</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.95581942689107</v>
+        <v>30.38448736585257</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3.534162179785222</v>
+        <v>4.328939690261484</v>
       </c>
       <c r="E15">
-        <v>24.57690329348934</v>
+        <v>31.30618769817855</v>
       </c>
       <c r="F15">
-        <v>17.57714368249091</v>
+        <v>20.45962476074613</v>
       </c>
       <c r="G15">
-        <v>18.48702478589167</v>
+        <v>27.46567678507927</v>
       </c>
       <c r="H15">
-        <v>10.69606339820772</v>
+        <v>7.368214188803714</v>
       </c>
       <c r="I15">
-        <v>23.84301654098216</v>
+        <v>23.71102803467971</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.84495742355052</v>
+        <v>16.6184831538915</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.97353646939756</v>
+        <v>14.2819608540345</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.51711508049459</v>
+        <v>29.40480778317897</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.493494831333073</v>
+        <v>4.213847827870653</v>
       </c>
       <c r="E16">
-        <v>24.27711815687135</v>
+        <v>30.52566689134026</v>
       </c>
       <c r="F16">
-        <v>17.4653987886754</v>
+        <v>19.73203032005284</v>
       </c>
       <c r="G16">
-        <v>18.23371008905025</v>
+        <v>26.46088322409287</v>
       </c>
       <c r="H16">
-        <v>10.7073512783057</v>
+        <v>7.254257408837771</v>
       </c>
       <c r="I16">
-        <v>23.76837800569671</v>
+        <v>23.21444198185445</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.63072660293102</v>
+        <v>16.10442443969835</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.94732975018171</v>
+        <v>13.75206300194064</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.24291765413716</v>
+        <v>28.79481930300248</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.468360995670151</v>
+        <v>4.141606538208079</v>
       </c>
       <c r="E17">
-        <v>24.09226330744514</v>
+        <v>30.0376813240035</v>
       </c>
       <c r="F17">
-        <v>17.39841869106639</v>
+        <v>19.27864807135961</v>
       </c>
       <c r="G17">
-        <v>18.07923066593522</v>
+        <v>25.8358426776615</v>
       </c>
       <c r="H17">
-        <v>10.71502839235325</v>
+        <v>7.186326443335396</v>
       </c>
       <c r="I17">
-        <v>23.72475192034926</v>
+        <v>22.91181410460391</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.4972042212197</v>
+        <v>15.78140990845752</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.93276966244403</v>
+        <v>13.42187820322326</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.0833800132637</v>
+        <v>28.44433268962499</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.453840903801817</v>
+        <v>4.09945659140458</v>
       </c>
       <c r="E18">
-        <v>23.98563296378431</v>
+        <v>29.75370053244145</v>
       </c>
       <c r="F18">
-        <v>17.36048479969826</v>
+        <v>19.0152786134632</v>
       </c>
       <c r="G18">
-        <v>17.99076126673367</v>
+        <v>25.47314289667384</v>
       </c>
       <c r="H18">
-        <v>10.7197200093875</v>
+        <v>7.147980056556865</v>
       </c>
       <c r="I18">
-        <v>23.70046251481505</v>
+        <v>22.73853072036729</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.41965469955597</v>
+        <v>15.59279585080723</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.92495381049116</v>
+        <v>13.2300661033869</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.0290531332493</v>
+        <v>28.32476434088169</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.448914129868809</v>
+        <v>4.085082801366005</v>
       </c>
       <c r="E19">
-        <v>23.94948105025286</v>
+        <v>29.65698831745019</v>
       </c>
       <c r="F19">
-        <v>17.34774386014744</v>
+        <v>18.92565935579243</v>
       </c>
       <c r="G19">
-        <v>17.9608771130868</v>
+        <v>25.34978905517579</v>
       </c>
       <c r="H19">
-        <v>10.72135584998138</v>
+        <v>7.135121135886171</v>
       </c>
       <c r="I19">
-        <v>23.69237726955582</v>
+        <v>22.6799980313007</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.39327078681008</v>
+        <v>15.52844825310777</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.92240356263949</v>
+        <v>13.16479393453237</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.27229630598836</v>
+        <v>28.85925971593971</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.471043238239079</v>
+        <v>4.149358771020836</v>
       </c>
       <c r="E20">
-        <v>24.11197410528478</v>
+        <v>30.08997169222438</v>
       </c>
       <c r="F20">
-        <v>17.40548794416821</v>
+        <v>19.32717979861815</v>
       </c>
       <c r="G20">
-        <v>18.09563663009519</v>
+        <v>25.90270938186521</v>
       </c>
       <c r="H20">
-        <v>10.71418257855678</v>
+        <v>7.193482672597722</v>
       </c>
       <c r="I20">
-        <v>23.72931305543849</v>
+        <v>22.94394957458247</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.51149610153198</v>
+        <v>15.81608745858321</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.93426180837743</v>
+        <v>13.45722298910387</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.06749057342364</v>
+        <v>30.63283265994489</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3.5446006856766</v>
+        <v>4.358146447686694</v>
       </c>
       <c r="E21">
-        <v>24.65397653739721</v>
+        <v>31.50482330381968</v>
       </c>
       <c r="F21">
-        <v>17.60646858051411</v>
+        <v>20.64531660745243</v>
       </c>
       <c r="G21">
-        <v>18.55267436663372</v>
+        <v>27.72244661598189</v>
       </c>
       <c r="H21">
-        <v>10.69338211844551</v>
+        <v>7.398247795102855</v>
       </c>
       <c r="I21">
-        <v>23.86294803023467</v>
+        <v>23.83982734487494</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.89960293333113</v>
+        <v>16.74884556465787</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.98077029531603</v>
+        <v>14.41720868922728</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.57021428766344</v>
+        <v>31.74630703539913</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3.592013307023268</v>
+        <v>4.489220787501459</v>
       </c>
       <c r="E22">
-        <v>25.00461876102801</v>
+        <v>32.39884399379311</v>
       </c>
       <c r="F22">
-        <v>17.74279097400772</v>
+        <v>21.4840259332307</v>
       </c>
       <c r="G22">
-        <v>18.85384738744223</v>
+        <v>28.8838432998484</v>
       </c>
       <c r="H22">
-        <v>10.68225625206601</v>
+        <v>7.538556336495339</v>
       </c>
       <c r="I22">
-        <v>23.95725156557403</v>
+        <v>24.43146142069989</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.146151068773</v>
+        <v>17.3335506743467</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.01611095428197</v>
+        <v>15.02818204907058</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.30348686851913</v>
+        <v>31.1564193795316</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3.566773204333757</v>
+        <v>4.419758162771701</v>
       </c>
       <c r="E23">
-        <v>24.8178427987998</v>
+        <v>31.92454776791245</v>
       </c>
       <c r="F23">
-        <v>17.66959309649063</v>
+        <v>21.03845302297523</v>
       </c>
       <c r="G23">
-        <v>18.69292406274536</v>
+        <v>28.26650499266664</v>
       </c>
       <c r="H23">
-        <v>10.68796796966205</v>
+        <v>7.463077121074218</v>
       </c>
       <c r="I23">
-        <v>23.90629211349893</v>
+        <v>24.11517032336943</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.01523229013852</v>
+        <v>17.02374851210002</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.9967983240249</v>
+        <v>14.70357212493906</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.25902012062811</v>
+        <v>28.83014297189964</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.46983081434575</v>
+        <v>4.145855909223864</v>
       </c>
       <c r="E24">
-        <v>24.10306394900006</v>
+        <v>30.06634189008738</v>
       </c>
       <c r="F24">
-        <v>17.4022901440662</v>
+        <v>19.30524706136366</v>
       </c>
       <c r="G24">
-        <v>18.08821841507591</v>
+        <v>25.87248940187328</v>
       </c>
       <c r="H24">
-        <v>10.71456410531194</v>
+        <v>7.190245136252391</v>
       </c>
       <c r="I24">
-        <v>23.72724849777612</v>
+        <v>22.9294189341993</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.50503718503902</v>
+        <v>15.80041880072759</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.93358548029039</v>
+        <v>13.4412497974596</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.06313719162274</v>
+        <v>26.17756377450836</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.362886379264974</v>
+        <v>3.827575965624725</v>
       </c>
       <c r="E25">
-        <v>23.32090071170974</v>
+        <v>27.93673261205358</v>
       </c>
       <c r="F25">
-        <v>17.13671737577759</v>
+        <v>17.45724893898322</v>
       </c>
       <c r="G25">
-        <v>17.45117546908091</v>
+        <v>23.16813942098028</v>
       </c>
       <c r="H25">
-        <v>10.75379374500879</v>
+        <v>6.923659020033263</v>
       </c>
       <c r="I25">
-        <v>23.56491533269772</v>
+        <v>21.68088135372415</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.92631145802654</v>
+        <v>14.37277300469106</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.88676413336646</v>
+        <v>12.29421730999252</v>
       </c>
     </row>
   </sheetData>
